--- a/biology/Zoologie/Formation_d'Huajiying/Formation_d'Huajiying.xlsx
+++ b/biology/Zoologie/Formation_d'Huajiying/Formation_d'Huajiying.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation d'Huajiying est une formation géologique d'âge Crétacé inférieur qui affleure dans la province de Hebei, située dans l'est de la Chine. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'âge la formation a été longtemps incertain. D'abord considérée soit d'âge Crétacé inférieur, soit Jurassique supérieur, elle est attribuée, depuis les années 2010 et grâce à quelques datations radiométriques, au Crétacé inférieur.
-En effet, les niveaux stratigraphiques de la base de la formation ont été datés par datation argon-argon (couple 39Ar-40Ar) de 130,7 Ma (millions d'années), de l'Hauterivien supérieur[1],[2].
-Elle pourrait ainsi être corrélée avec la formation de Dadianzi et, peut-être en partie, avec la formation d'Yixian, cette dernière étant âgée d'environ 129,7 à 122,1 Ma (millions d'années), de l'extrême sommet de l'Hauterivien jusqu'à l'Aptien inférieur[3],[4].
+En effet, les niveaux stratigraphiques de la base de la formation ont été datés par datation argon-argon (couple 39Ar-40Ar) de 130,7 Ma (millions d'années), de l'Hauterivien supérieur,.
+Elle pourrait ainsi être corrélée avec la formation de Dadianzi et, peut-être en partie, avec la formation d'Yixian, cette dernière étant âgée d'environ 129,7 à 122,1 Ma (millions d'années), de l'extrême sommet de l'Hauterivien jusqu'à l'Aptien inférieur,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une séquence de dépôts d'environnement fluvio-lacustre, de grès et de siltstones intercalés avec de nombreux niveaux d'argiles et de calcaires fins, admettant de fréquents intervalles de pyroclastites[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une séquence de dépôts d'environnement fluvio-lacustre, de grès et de siltstones intercalés avec de nombreux niveaux d'argiles et de calcaires fins, admettant de fréquents intervalles de pyroclastites.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La formation d'Huajiying est subdivisée en plusieurs membres, de haut en bas, et donc des plus récents vers les plus anciens :
 membre volcanique n° 5 (5th Volcanic Member)
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Paléobiote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En suivant les conclusions des études de F. Ji et de ses collègues en 2008[5], la faune et la flore fossilisées dans cette formation géologique constituent le plus ancien enregistrement de l'écosystème du paléobiote de Jehol. Ce paléo-écosystème se prolongera lors du dépôt des formations d'Yixian et de Jiufotang, il y a environ 129,7 et 120,3 Ma (millions d'années), jusqu'à l'Aptien inférieur[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En suivant les conclusions des études de F. Ji et de ses collègues en 2008, la faune et la flore fossilisées dans cette formation géologique constituent le plus ancien enregistrement de l'écosystème du paléobiote de Jehol. Ce paléo-écosystème se prolongera lors du dépôt des formations d'Yixian et de Jiufotang, il y a environ 129,7 et 120,3 Ma (millions d'années), jusqu'à l'Aptien inférieur.
 </t>
         </is>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Formation_d%27Huajiying</t>
+          <t>Formation_d'Huajiying</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,10 +667,12 @@
           <t>Paléofaune</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oiseaux primitifs sont les plus célèbres des fossiles de cette formation, dont l'un des plus anciens, l'énanthionithes  Protopteryx[7].
-À noter aussi les fossiles d'un théropode de la famille des Troodontidae : Jinfengopteryx, et plusieurs espèces de poissons[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oiseaux primitifs sont les plus célèbres des fossiles de cette formation, dont l'un des plus anciens, l'énanthionithes  Protopteryx.
+À noter aussi les fossiles d'un théropode de la famille des Troodontidae : Jinfengopteryx, et plusieurs espèces de poissons.
 </t>
         </is>
       </c>
